--- a/src/main/resources/template/excel/export/activitySpecialPackageGoodsBarCodeTemplate.xlsx
+++ b/src/main/resources/template/excel/export/activitySpecialPackageGoodsBarCodeTemplate.xlsx
@@ -35,9 +35,12 @@
     <t>1324569874525</t>
   </si>
   <si>
-    <t>特价打包</t>
+    <t>特价打包数量</t>
     <rPh sb="2" eb="3">
       <t>da'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'l</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -402,22 +405,23 @@
             </a:rPr>
             <a:t>必填，未填导入失败。</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -428,7 +432,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>偶数特价：</a:t>
+            <a:t>特价打包：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
@@ -458,7 +462,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>，商品偶数特价优惠价格。</a:t>
+            <a:t>，商品特价打包数量。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -758,7 +762,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
